--- a/data/5-annotations/annotations_new.xlsx
+++ b/data/5-annotations/annotations_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\UKHSA-Capstone\data\5-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmelmed/git_repos/UKHSA-Capstone/data/5-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F509A38B-E96A-42C4-9FF3-83E4697B205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F8C0D-CBB7-3645-BB6B-7695BED13B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26380" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="16">
   <si>
     <t>country</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>myanmar</t>
   </si>
 </sst>
 </file>
@@ -544,24 +547,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="56" style="3" customWidth="1"/>
-    <col min="5" max="5" width="80.453125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="80.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -589,7 +592,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -600,7 +603,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -608,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -616,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -624,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -632,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -642,7 +645,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -650,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -658,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -666,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -674,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -682,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -692,7 +695,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -700,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -708,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -716,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -725,7 +728,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -733,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -741,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -749,7 +752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -759,7 +762,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -769,7 +772,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -779,7 +782,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -789,7 +792,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -800,7 +803,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -811,7 +814,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -819,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -827,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -835,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -843,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -851,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -859,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -867,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -875,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -883,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -891,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -899,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -907,7 +910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -915,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -923,7 +926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -931,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -939,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -947,7 +950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -955,7 +958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -963,7 +966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -971,7 +974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -979,7 +982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -987,7 +990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>9</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>9</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1286,7 @@
       <c r="C76" s="11"/>
       <c r="E76" s="10"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1296,7 @@
       <c r="C77" s="11"/>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
@@ -1303,7 +1306,7 @@
       <c r="C78" s="11"/>
       <c r="E78" s="10"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1316,7 @@
       <c r="C79" s="11"/>
       <c r="E79" s="10"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1326,7 @@
       <c r="C80" s="11"/>
       <c r="E80" s="10"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>10</v>
       </c>
@@ -1333,7 +1336,7 @@
       <c r="C81" s="11"/>
       <c r="E81" s="10"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1346,7 @@
       <c r="C82" s="11"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1356,7 @@
       <c r="C83" s="11"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1366,7 @@
       <c r="C84" s="11"/>
       <c r="E84" s="10"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1376,7 @@
       <c r="C85" s="11"/>
       <c r="E85" s="10"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1386,7 @@
       <c r="C86" s="11"/>
       <c r="E86" s="10"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1396,7 @@
       <c r="C87" s="11"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="C88" s="11"/>
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1416,7 @@
       <c r="C89" s="11"/>
       <c r="E89" s="10"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1426,7 @@
       <c r="C90" s="11"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1436,7 @@
       <c r="C91" s="11"/>
       <c r="E91" s="10"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1446,7 @@
       <c r="C92" s="11"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1456,7 @@
       <c r="C93" s="11"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1466,7 @@
       <c r="C94" s="11"/>
       <c r="E94" s="10"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1476,7 @@
       <c r="C95" s="11"/>
       <c r="E95" s="10"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1486,7 @@
       <c r="C96" s="11"/>
       <c r="E96" s="10"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1496,7 @@
       <c r="C97" s="11"/>
       <c r="E97" s="10"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>11</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1527,7 @@
       </c>
       <c r="C100" s="11"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1536,7 @@
       </c>
       <c r="C101" s="11"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1545,7 @@
       </c>
       <c r="C102" s="11"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="C103" s="11"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1563,7 @@
       </c>
       <c r="C104" s="11"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +1572,7 @@
       </c>
       <c r="C105" s="11"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1581,7 @@
       </c>
       <c r="C106" s="11"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>11</v>
       </c>
@@ -1587,7 +1590,7 @@
       </c>
       <c r="C107" s="11"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
@@ -1596,7 +1599,7 @@
       </c>
       <c r="C108" s="11"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>11</v>
       </c>
@@ -1605,7 +1608,7 @@
       </c>
       <c r="C109" s="11"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>11</v>
       </c>
@@ -1614,7 +1617,7 @@
       </c>
       <c r="C110" s="11"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1626,7 @@
       </c>
       <c r="C111" s="11"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>11</v>
       </c>
@@ -1632,7 +1635,7 @@
       </c>
       <c r="C112" s="11"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1644,7 @@
       </c>
       <c r="C113" s="11"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
@@ -1650,7 +1653,7 @@
       </c>
       <c r="C114" s="11"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1662,7 @@
       </c>
       <c r="C115" s="11"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
@@ -1668,7 +1671,7 @@
       </c>
       <c r="C116" s="11"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1680,7 @@
       </c>
       <c r="C117" s="11"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1689,7 @@
       </c>
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>11</v>
       </c>
@@ -1695,7 +1698,7 @@
       </c>
       <c r="C119" s="11"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1707,7 @@
       </c>
       <c r="C120" s="11"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1716,7 @@
       </c>
       <c r="C121" s="11"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1747,7 @@
       </c>
       <c r="C124" s="11"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>12</v>
       </c>
@@ -1753,7 +1756,7 @@
       </c>
       <c r="C125" s="11"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="C126" s="11"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1774,7 @@
       </c>
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1783,7 @@
       </c>
       <c r="C128" s="11"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="C129" s="11"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>12</v>
       </c>
@@ -1798,7 +1801,7 @@
       </c>
       <c r="C130" s="11"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>12</v>
       </c>
@@ -1807,7 +1810,7 @@
       </c>
       <c r="C131" s="11"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +1819,7 @@
       </c>
       <c r="C132" s="11"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1828,7 @@
       </c>
       <c r="C133" s="11"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1837,7 @@
       </c>
       <c r="C134" s="11"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1846,7 @@
       </c>
       <c r="C135" s="11"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>12</v>
       </c>
@@ -1852,7 +1855,7 @@
       </c>
       <c r="C136" s="11"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>12</v>
       </c>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="C137" s="11"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1873,7 @@
       </c>
       <c r="C138" s="11"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>12</v>
       </c>
@@ -1879,7 +1882,7 @@
       </c>
       <c r="C139" s="11"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +1891,7 @@
       </c>
       <c r="C140" s="11"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>12</v>
       </c>
@@ -1897,7 +1900,7 @@
       </c>
       <c r="C141" s="11"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>12</v>
       </c>
@@ -1906,7 +1909,7 @@
       </c>
       <c r="C142" s="11"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>12</v>
       </c>
@@ -1922,11 +1925,222 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+      <c r="C148" s="11"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2</v>
+      </c>
+      <c r="C149" s="11"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="3">
+        <v>3</v>
+      </c>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="3">
+        <v>4</v>
+      </c>
+      <c r="C151" s="11"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="3">
+        <v>5</v>
+      </c>
+      <c r="C152" s="11"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="3">
+        <v>6</v>
+      </c>
+      <c r="C153" s="11"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="3">
+        <v>7</v>
+      </c>
+      <c r="C154" s="11"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="3">
+        <v>8</v>
+      </c>
+      <c r="C155" s="11"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="3">
+        <v>9</v>
+      </c>
+      <c r="C156" s="11"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="3">
+        <v>10</v>
+      </c>
+      <c r="C157" s="11"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="3">
+        <v>11</v>
+      </c>
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="3">
+        <v>12</v>
+      </c>
+      <c r="C159" s="11"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="3">
+        <v>13</v>
+      </c>
+      <c r="C160" s="11"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="3">
+        <v>14</v>
+      </c>
+      <c r="C161" s="11"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="3">
+        <v>15</v>
+      </c>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="3">
+        <v>16</v>
+      </c>
+      <c r="C163" s="11"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="3">
+        <v>17</v>
+      </c>
+      <c r="C164" s="11"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="3">
+        <v>18</v>
+      </c>
+      <c r="C165" s="11"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="3">
+        <v>19</v>
+      </c>
+      <c r="C166" s="11"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="3">
         <v>22</v>
       </c>
     </row>

--- a/data/5-annotations/annotations_new.xlsx
+++ b/data/5-annotations/annotations_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmelmed/git_repos/UKHSA-Capstone/data/5-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F8C0D-CBB7-3645-BB6B-7695BED13B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7D881-BE99-E34E-A8AC-291681345174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26380" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="20">
   <si>
     <t>country</t>
   </si>
@@ -85,12 +85,24 @@
   <si>
     <t>myanmar</t>
   </si>
+  <si>
+    <t>malta</t>
+  </si>
+  <si>
+    <t>oman</t>
+  </si>
+  <si>
+    <t>libya</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +160,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -213,6 +232,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1933,215 +1953,1320 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
       </c>
-      <c r="C148" s="11"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B149" s="3">
         <v>2</v>
       </c>
-      <c r="C149" s="11"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="3">
         <v>3</v>
       </c>
-      <c r="C150" s="11"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B151" s="3">
         <v>4</v>
       </c>
-      <c r="C151" s="11"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B152" s="3">
         <v>5</v>
       </c>
-      <c r="C152" s="11"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B153" s="3">
         <v>6</v>
       </c>
-      <c r="C153" s="11"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B154" s="3">
         <v>7</v>
       </c>
-      <c r="C154" s="11"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B155" s="3">
         <v>8</v>
       </c>
-      <c r="C155" s="11"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B156" s="3">
         <v>9</v>
       </c>
-      <c r="C156" s="11"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B157" s="3">
         <v>10</v>
       </c>
-      <c r="C157" s="11"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B158" s="3">
         <v>11</v>
       </c>
-      <c r="C158" s="11"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B159" s="3">
         <v>12</v>
       </c>
-      <c r="C159" s="11"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B160" s="3">
         <v>13</v>
       </c>
-      <c r="C160" s="11"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B161" s="3">
         <v>14</v>
       </c>
-      <c r="C161" s="11"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B162" s="3">
         <v>15</v>
       </c>
-      <c r="C162" s="11"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B163" s="3">
         <v>16</v>
       </c>
-      <c r="C163" s="11"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B164" s="3">
         <v>17</v>
       </c>
-      <c r="C164" s="11"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B165" s="3">
         <v>18</v>
       </c>
-      <c r="C165" s="11"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B166" s="3">
         <v>19</v>
       </c>
-      <c r="C166" s="11"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B167" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B168" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B169" s="3">
         <v>22</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="3">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="3">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="3">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="3">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="3">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="3">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="3">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="3">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="3">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="3">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="3">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="3">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" s="3">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" s="3">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="3">
+        <v>17</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="3">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="3">
+        <v>19</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="3">
+        <v>20</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="3">
+        <v>21</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" s="3">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195"/>
+    </row>
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="3">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="3">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="3">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="3">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="3">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="3">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="3">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="3">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="3">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="3">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="3">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="3">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="3">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="3">
+        <v>16</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="3">
+        <v>17</v>
+      </c>
+      <c r="C212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="3">
+        <v>18</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="3">
+        <v>19</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="3">
+        <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" s="3">
+        <v>21</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" s="3">
+        <v>22</v>
+      </c>
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="3">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" s="3">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="3">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223" s="3">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224" s="3">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" s="3">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" s="3">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227" s="3">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" s="3">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" s="3">
+        <v>10</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="3">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" s="3">
+        <v>12</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="3">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233" s="3">
+        <v>14</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234" s="3">
+        <v>15</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" s="3">
+        <v>16</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B236" s="3">
+        <v>17</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237" s="3">
+        <v>18</v>
+      </c>
+      <c r="C237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" s="3">
+        <v>19</v>
+      </c>
+      <c r="C238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B239" s="3">
+        <v>20</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240" s="3">
+        <v>21</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241" s="3">
+        <v>22</v>
+      </c>
+      <c r="C241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="12"/>
+    </row>
+    <row r="244" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245" s="3">
+        <v>2</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B246" s="3">
+        <v>3</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247" s="3">
+        <v>4</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B248" s="3">
+        <v>5</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" s="3">
+        <v>6</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" s="3">
+        <v>7</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B251" s="3">
+        <v>8</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B252" s="3">
+        <v>9</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253" s="3">
+        <v>10</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B254" s="3">
+        <v>11</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B255" s="3">
+        <v>12</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B256" s="3">
+        <v>13</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B257" s="3">
+        <v>14</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" s="3">
+        <v>15</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B259" s="3">
+        <v>16</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B260" s="3">
+        <v>17</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B261" s="3">
+        <v>18</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B262" s="3">
+        <v>19</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B263" s="3">
+        <v>20</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B264" s="3">
+        <v>21</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B265" s="3">
+        <v>22</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/5-annotations/annotations_new.xlsx
+++ b/data/5-annotations/annotations_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmelmed/git_repos/UKHSA-Capstone/data/5-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7D881-BE99-E34E-A8AC-291681345174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434380B0-676D-B348-9B35-6FE69BF6899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26380" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="20">
   <si>
     <t>country</t>
   </si>
@@ -569,9 +569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C229" sqref="C229"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="183" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -834,180 +834,246 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="3">
         <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
